--- a/plantillas/LibTribInvPermUniFisica.xlsx
+++ b/plantillas/LibTribInvPermUniFisica.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\excel - tools\plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\generar_cabeceras_excel\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D01AB277-FCED-41AF-8A32-23EABD00AE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51879BC3-B280-4649-9D1F-CC8CEA570879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="3585" windowWidth="21600" windowHeight="11385" xr2:uid="{E0DEC7D7-D5B4-471F-926A-BAC3813EFEC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0DEC7D7-D5B4-471F-926A-BAC3813EFEC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -72,13 +72,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,27 +95,9 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -119,18 +107,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,69 +452,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145C902A-7F9E-4110-AC4D-9D0FE5683756}">
-  <dimension ref="A6:I13"/>
+  <dimension ref="A6:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F13" sqref="F13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="I13" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
